--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -1,168 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010389</t>
-  </si>
-  <si>
-    <t>003293</t>
-  </si>
-  <si>
-    <t>011649</t>
-  </si>
-  <si>
-    <t>110012</t>
-  </si>
-  <si>
-    <t>011650</t>
-  </si>
-  <si>
-    <t>010390</t>
-  </si>
-  <si>
-    <t>易方达科益混合A</t>
-  </si>
-  <si>
-    <t>易方达科瑞灵活配置混合</t>
-  </si>
-  <si>
-    <t>易方达逆向投资混合A</t>
-  </si>
-  <si>
-    <t>易方达科汇灵活配置混合</t>
-  </si>
-  <si>
-    <t>易方达逆向投资混合C</t>
-  </si>
-  <si>
-    <t>易方达科益混合C</t>
-  </si>
-  <si>
-    <t>23.52</t>
-  </si>
-  <si>
-    <t>12.66</t>
-  </si>
-  <si>
-    <t>6.31</t>
-  </si>
-  <si>
-    <t>4.93</t>
-  </si>
-  <si>
-    <t>1.96</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>77.65</t>
-  </si>
-  <si>
-    <t>71.15</t>
-  </si>
-  <si>
-    <t>34.38</t>
-  </si>
-  <si>
-    <t>70.02</t>
-  </si>
-  <si>
-    <t>4.17</t>
-  </si>
-  <si>
-    <t>4.33</t>
-  </si>
-  <si>
-    <t>4.56</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>0.9808</t>
-  </si>
-  <si>
-    <t>0.5482</t>
-  </si>
-  <si>
-    <t>0.2877</t>
-  </si>
-  <si>
-    <t>0.2218</t>
-  </si>
-  <si>
-    <t>0.0894</t>
-  </si>
-  <si>
-    <t>0.0225</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -487,193 +446,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5482</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2877</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>70.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>34.38</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.65</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5257</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>61.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4368</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3638</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2411</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>60.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.67</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>72.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6973</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1067,13 +1110,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5385</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>71.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2649</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1343,7 +1344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1354,17 +1355,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1374,14 +1395,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1390,14 +1433,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.67</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1406,13 +1471,477 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5126</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4239</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002291</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安安鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1862</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010857</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010858</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈祥乐一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>36.12</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002952</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信多因子量化股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>6</v>
       </c>
       <c r="D4" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1856,7 +1857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1867,17 +1868,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1887,14 +1908,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.11</v>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1903,14 +1946,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1787</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1919,14 +1984,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="5">
@@ -1935,13 +2106,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>6</v>
       </c>
       <c r="D5" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
         <v>2.15</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0.59</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>4.11</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -566,6 +583,480 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003293</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达科瑞灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达科融混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7131</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>110012</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达科汇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010389</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达科益混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2291</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011649</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1629</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011650</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达逆向投资混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0808</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013603</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达科益混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>013604</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>易方达均衡优选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>49.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +1226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1247,7 +1738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1569,7 +2060,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1853,7 +2344,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
+++ b/数据整理/stocks/A股/深证主板/000906-浙商中拓.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>0.59</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.11</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.67</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>6</v>
       </c>
       <c r="D7" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="n">
         <v>2.15</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1056,7 +1205,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1226,7 +1375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1738,7 +1887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2060,7 +2209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2344,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
